--- a/gameservicedemo/src/main/resources/game_configuration_excel/skill.xlsx
+++ b/gameservicedemo/src/main/resources/game_configuration_excel/skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="技能配置表" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -110,64 +110,118 @@
     <t>描述</t>
   </si>
   <si>
+    <t>技能语音</t>
+  </si>
+  <si>
     <t>剑刃风暴</t>
   </si>
   <si>
+    <t>万剑归宗！</t>
+  </si>
+  <si>
     <t>冲锋</t>
   </si>
   <si>
     <t>冲锋后会造成眩晕效果</t>
   </si>
   <si>
+    <t>让我们亲热亲热！</t>
+  </si>
+  <si>
     <t>暴风雪</t>
   </si>
   <si>
+    <t>凛冬已至，暴雪将来！</t>
+  </si>
+  <si>
     <t>奥术飞弹</t>
   </si>
   <si>
+    <t>罪恶的人，接受炮火的洗礼吧！</t>
+  </si>
+  <si>
     <t>死亡缠绕</t>
   </si>
   <si>
+    <t>魅术，想和人家做羞羞的事情吗？</t>
+  </si>
+  <si>
     <t>亡者大军</t>
   </si>
   <si>
+    <t>列阵，冲锋</t>
+  </si>
+  <si>
     <t>火球术</t>
   </si>
   <si>
     <t>单体技能，会造成灼烧效果</t>
   </si>
   <si>
+    <t>体验过引火烧身吗？</t>
+  </si>
+  <si>
     <t>多重射击</t>
   </si>
   <si>
     <t>对多个目标造成伤害</t>
   </si>
   <si>
+    <t>biubiubiubiu</t>
+  </si>
+  <si>
     <t>眩晕</t>
   </si>
   <si>
     <t>造成眩晕效果</t>
   </si>
   <si>
+    <t>头晕哦~</t>
+  </si>
+  <si>
     <t>动物伙伴</t>
   </si>
   <si>
     <t>召唤一个宠物协同自己作战</t>
   </si>
   <si>
+    <t>可爱的小动物你喜欢吗？</t>
+  </si>
+  <si>
     <t>治疗术</t>
   </si>
   <si>
     <t>治疗队友或自己</t>
   </si>
   <si>
+    <t>啊~生命的力量</t>
+  </si>
+  <si>
     <t>圣击术</t>
   </si>
   <si>
+    <t>以神的名义向你发起制裁！</t>
+  </si>
+  <si>
     <t>治疗祈祷</t>
   </si>
   <si>
     <t>迅速恢复生命值</t>
+  </si>
+  <si>
+    <t>奶一口，就一口~</t>
+  </si>
+  <si>
+    <t>金身</t>
+  </si>
+  <si>
+    <t>暂时无法选中</t>
+  </si>
+  <si>
+    <t>名刀</t>
+  </si>
+  <si>
+    <t>暂时无敌</t>
   </si>
 </sst>
 </file>
@@ -175,12 +229,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,14 +244,97 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,36 +349,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,9 +365,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -263,70 +379,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -344,6 +398,11 @@
       <name val="Verdana"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -354,6 +413,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -366,175 +437,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,7 +610,27 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -587,13 +666,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,32 +699,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,10 +712,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -665,133 +724,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -868,7 +927,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1147,18 +1206,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="12" max="12" width="34.6666666666667" customWidth="1"/>
+    <col min="13" max="13" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1195,13 +1255,16 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>7</v>
@@ -1227,13 +1290,16 @@
       <c r="J2">
         <v>0</v>
       </c>
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -1260,15 +1326,18 @@
         <v>3</v>
       </c>
       <c r="L3" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="M3" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1294,13 +1363,16 @@
       <c r="J4">
         <v>2</v>
       </c>
+      <c r="M4" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1326,13 +1398,16 @@
       <c r="J5">
         <v>0</v>
       </c>
+      <c r="M5" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1358,13 +1433,16 @@
       <c r="J6">
         <v>5</v>
       </c>
+      <c r="M6" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1390,13 +1468,16 @@
       <c r="J7">
         <v>0</v>
       </c>
+      <c r="M7" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1420,15 +1501,18 @@
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="M8" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -1455,15 +1539,18 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>22</v>
+        <v>30</v>
+      </c>
+      <c r="M9" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -1487,15 +1574,18 @@
         <v>3</v>
       </c>
       <c r="L10" t="s">
-        <v>24</v>
+        <v>33</v>
+      </c>
+      <c r="M10" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -1525,15 +1615,18 @@
         <v>16</v>
       </c>
       <c r="L11" t="s">
-        <v>26</v>
+        <v>36</v>
+      </c>
+      <c r="M11" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1560,15 +1653,18 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>28</v>
+        <v>39</v>
+      </c>
+      <c r="M12" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -1594,13 +1690,16 @@
       <c r="J13">
         <v>0</v>
       </c>
+      <c r="M13" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1627,7 +1726,80 @@
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>31</v>
+        <v>44</v>
+      </c>
+      <c r="M14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>60000</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>6</v>
+      </c>
+      <c r="L15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>40000</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>7</v>
+      </c>
+      <c r="L16" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/gameservicedemo/src/main/resources/game_configuration_excel/skill.xlsx
+++ b/gameservicedemo/src/main/resources/game_configuration_excel/skill.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -223,16 +223,25 @@
   <si>
     <t>暂时无敌</t>
   </si>
+  <si>
+    <t>普通攻击</t>
+  </si>
+  <si>
+    <t>普通攻击，伤害类型为物理伤害，可触发暴击</t>
+  </si>
+  <si>
+    <t>比u~比u~</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -243,22 +252,100 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,7 +367,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,83 +381,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -379,11 +389,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -413,61 +422,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,102 +590,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -582,12 +597,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,11 +616,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,17 +635,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -651,6 +655,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -666,17 +679,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,8 +708,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,10 +721,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -724,133 +733,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1206,10 +1215,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1802,6 +1811,44 @@
         <v>49</v>
       </c>
     </row>
+    <row r="17" spans="1:13">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1000</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>51</v>
+      </c>
+      <c r="M17" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/gameservicedemo/src/main/resources/game_configuration_excel/skill.xlsx
+++ b/gameservicedemo/src/main/resources/game_configuration_excel/skill.xlsx
@@ -37,7 +37,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +63,10 @@
     <t>名字</t>
   </si>
   <si>
-    <t>类型</t>
+    <t>影响类型</t>
+  </si>
+  <si>
+    <t>技能类型</t>
   </si>
   <si>
     <t>施法时间</t>
@@ -218,19 +221,16 @@
     <t>暂时无法选中</t>
   </si>
   <si>
+    <t>普通攻击</t>
+  </si>
+  <si>
+    <t>普通攻击，伤害类型为物理伤害，可触发暴击</t>
+  </si>
+  <si>
+    <t>比u~比u~</t>
+  </si>
+  <si>
     <t>名刀</t>
-  </si>
-  <si>
-    <t>暂时无敌</t>
-  </si>
-  <si>
-    <t>普通攻击</t>
-  </si>
-  <si>
-    <t>普通攻击，伤害类型为物理伤害，可触发暴击</t>
-  </si>
-  <si>
-    <t>比u~比u~</t>
   </si>
 </sst>
 </file>
@@ -238,10 +238,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -249,6 +249,60 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -267,9 +321,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,14 +344,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,59 +374,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -360,30 +383,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,187 +422,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,17 +616,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,30 +630,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -705,6 +675,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -721,10 +721,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -733,133 +733,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1215,19 +1215,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="12" max="12" width="34.6666666666667" customWidth="1"/>
+    <col min="12" max="12" width="9.11111111111111" customWidth="1"/>
     <col min="13" max="13" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1267,13 +1267,16 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>7</v>
@@ -1282,33 +1285,36 @@
         <v>0</v>
       </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>30000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>50</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>120</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
       <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
         <v>10</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>14</v>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -1317,71 +1323,77 @@
         <v>0</v>
       </c>
       <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>40000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>30</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>10</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
       <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>5</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>3</v>
-      </c>
-      <c r="L3" t="s">
-        <v>16</v>
       </c>
       <c r="M3" t="s">
         <v>17</v>
       </c>
+      <c r="N3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>3000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>30000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>80</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>60</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
       <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
         <v>10</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="M4" t="s">
-        <v>19</v>
+      <c r="N4" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1390,33 +1402,36 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>10000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>30</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>50</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
       <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>5</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="M5" t="s">
-        <v>21</v>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1425,33 +1440,36 @@
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>20000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>20</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>80</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
       <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>2</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>5</v>
       </c>
-      <c r="M6" t="s">
-        <v>23</v>
+      <c r="N6" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1460,68 +1478,74 @@
         <v>0</v>
       </c>
       <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>60000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>60</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>666</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
       <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
         <v>10</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="M7" t="s">
-        <v>25</v>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>20000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>10</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>20</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>10</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>1</v>
-      </c>
-      <c r="L8" t="s">
-        <v>27</v>
       </c>
       <c r="M8" t="s">
         <v>28</v>
       </c>
+      <c r="N8" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -1530,150 +1554,162 @@
         <v>0</v>
       </c>
       <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>35000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>20</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>30</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
       <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <v>10</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="L9" t="s">
-        <v>30</v>
+      <c r="K9">
+        <v>0</v>
       </c>
       <c r="M9" t="s">
         <v>31</v>
       </c>
+      <c r="N9" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>20000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>30</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>1</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>10</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>3</v>
-      </c>
-      <c r="L10" t="s">
-        <v>33</v>
       </c>
       <c r="M10" t="s">
         <v>34</v>
       </c>
+      <c r="N10" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11">
         <v>5</v>
       </c>
       <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
         <v>2000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>20000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>30</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
         <v>15</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
       <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
         <v>16</v>
-      </c>
-      <c r="L11" t="s">
-        <v>36</v>
       </c>
       <c r="M11" t="s">
         <v>37</v>
       </c>
+      <c r="N11" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
         <v>2000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>20000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>30</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>50</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>10</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="L12" t="s">
-        <v>39</v>
+      <c r="K12">
+        <v>0</v>
       </c>
       <c r="M12" t="s">
         <v>40</v>
       </c>
+      <c r="N12" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -1682,83 +1718,89 @@
         <v>0</v>
       </c>
       <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>20000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>30</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>20</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
       <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
         <v>15</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="M13" t="s">
-        <v>42</v>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
         <v>4000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>40000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>30</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
       <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>100</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>15</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="L14" t="s">
-        <v>44</v>
+      <c r="K14">
+        <v>0</v>
       </c>
       <c r="M14" t="s">
         <v>45</v>
       </c>
+      <c r="N14" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15">
         <v>6</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1770,30 +1812,33 @@
         <v>0</v>
       </c>
       <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
         <v>6</v>
       </c>
-      <c r="L15" t="s">
-        <v>47</v>
+      <c r="M15" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:14">
       <c r="A16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1805,48 +1850,30 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7</v>
-      </c>
-      <c r="L16" t="s">
-        <v>49</v>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="M16" t="s">
+        <v>50</v>
+      </c>
+      <c r="N16" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:6">
       <c r="A17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="E17">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="L17" t="s">
-        <v>51</v>
-      </c>
-      <c r="M17" t="s">
-        <v>52</v>
+        <v>120000</v>
       </c>
     </row>
   </sheetData>

--- a/gameservicedemo/src/main/resources/game_configuration_excel/skill.xlsx
+++ b/gameservicedemo/src/main/resources/game_configuration_excel/skill.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>id</t>
   </si>
@@ -334,16 +334,25 @@
   <si>
     <t>强盗快离开！</t>
   </si>
+  <si>
+    <t>嘲讽</t>
+  </si>
+  <si>
+    <t>嘲讽怪物，成为怪物攻击目标</t>
+  </si>
+  <si>
+    <t>废物~</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -354,24 +363,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,6 +392,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -398,9 +400,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,52 +412,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -477,7 +432,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,8 +477,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -524,37 +533,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,145 +707,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,6 +724,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -729,6 +753,50 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -756,65 +824,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -823,10 +832,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -835,133 +844,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1294,10 +1303,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S30"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1386,7 +1395,9 @@
       <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
       <c r="G2" s="1">
         <v>0</v>
       </c>
@@ -1435,7 +1446,9 @@
       <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
       <c r="G3" s="1">
         <v>0</v>
       </c>
@@ -1486,7 +1499,9 @@
       <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
       <c r="G4" s="1">
         <v>3000</v>
       </c>
@@ -1535,7 +1550,9 @@
       <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
       <c r="G5" s="1">
         <v>0</v>
       </c>
@@ -1584,7 +1601,9 @@
       <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
       <c r="G6" s="1">
         <v>0</v>
       </c>
@@ -1633,7 +1652,9 @@
       <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
       <c r="G7" s="1">
         <v>0</v>
       </c>
@@ -1682,7 +1703,9 @@
       <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8">
+        <v>1</v>
+      </c>
       <c r="G8" s="1">
         <v>4000</v>
       </c>
@@ -1731,7 +1754,9 @@
       <c r="E9" s="1">
         <v>0</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
       <c r="G9" s="1">
         <v>0</v>
       </c>
@@ -1782,7 +1807,9 @@
       <c r="E10" s="1">
         <v>0</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
       <c r="G10" s="1">
         <v>0</v>
       </c>
@@ -1831,7 +1858,9 @@
       <c r="E11" s="1">
         <v>0</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
       <c r="G11" s="1">
         <v>2000</v>
       </c>
@@ -1854,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1">
@@ -1884,7 +1913,9 @@
       <c r="E12" s="1">
         <v>0</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
       <c r="G12" s="1">
         <v>2000</v>
       </c>
@@ -1935,7 +1966,9 @@
       <c r="E13" s="1">
         <v>0</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
       <c r="G13" s="1">
         <v>0</v>
       </c>
@@ -1984,7 +2017,9 @@
       <c r="E14" s="1">
         <v>0</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
       <c r="G14" s="1">
         <v>4000</v>
       </c>
@@ -2035,7 +2070,9 @@
       <c r="E15" s="1">
         <v>0</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
       <c r="G15" s="1">
         <v>0</v>
       </c>
@@ -2076,7 +2113,7 @@
         <v>54</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -2084,7 +2121,9 @@
       <c r="E16" s="1">
         <v>0</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
       <c r="G16" s="1">
         <v>0</v>
       </c>
@@ -2639,6 +2678,53 @@
         <v>86</v>
       </c>
     </row>
+    <row r="31" spans="1:19">
+      <c r="A31">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31">
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>5000</v>
+      </c>
+      <c r="I31">
+        <v>40</v>
+      </c>
+      <c r="J31">
+        <v>50</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="R31" t="s">
+        <v>88</v>
+      </c>
+      <c r="S31" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/gameservicedemo/src/main/resources/game_configuration_excel/skill.xlsx
+++ b/gameservicedemo/src/main/resources/game_configuration_excel/skill.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="93">
   <si>
     <t>id</t>
   </si>
@@ -343,15 +343,24 @@
   <si>
     <t>废物~</t>
   </si>
+  <si>
+    <t>回血</t>
+  </si>
+  <si>
+    <t>使用药物后触发</t>
+  </si>
+  <si>
+    <t>回蓝</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -370,9 +379,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,76 +434,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,14 +464,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -501,7 +510,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -533,19 +542,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,163 +716,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,21 +733,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -761,7 +755,42 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -790,37 +819,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -832,145 +841,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1303,10 +1312,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2725,6 +2734,46 @@
         <v>89</v>
       </c>
     </row>
+    <row r="32" spans="1:18">
+      <c r="A32">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="M32">
+        <v>106</v>
+      </c>
+      <c r="R32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="M33">
+        <v>105</v>
+      </c>
+      <c r="R33" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/gameservicedemo/src/main/resources/game_configuration_excel/skill.xlsx
+++ b/gameservicedemo/src/main/resources/game_configuration_excel/skill.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
   <si>
     <t>id</t>
   </si>
@@ -352,21 +352,56 @@
   <si>
     <t>回蓝</t>
   </si>
+  <si>
+    <t>击晕</t>
+  </si>
+  <si>
+    <t>boss击飞，击飞后不能使用技能</t>
+  </si>
+  <si>
+    <t>毒气攻击</t>
+  </si>
+  <si>
+    <t>boss释放中毒效果</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -380,7 +415,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -397,120 +523,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -542,19 +554,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,25 +692,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,133 +728,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,16 +749,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -777,15 +789,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -804,6 +807,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -818,21 +845,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -841,10 +853,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -853,133 +865,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1312,10 +1324,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2774,6 +2786,91 @@
         <v>91</v>
       </c>
     </row>
+    <row r="34" spans="1:18">
+      <c r="A34">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>3</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>150</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="R34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>150</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="R35" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
